--- a/table_task2.xlsx
+++ b/table_task2.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -467,35 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Median</t>
+          <t>median</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Std_Dev</t>
+          <t>std</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>min</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>max</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>2019</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>DE_LU</t>
         </is>
@@ -517,8 +496,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>NO2</t>
         </is>
@@ -540,10 +521,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2020</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>DE_LU</t>
         </is>
@@ -565,8 +546,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="A5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NO2</t>
         </is>
@@ -588,10 +571,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>2021</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>DE_LU</t>
         </is>
@@ -613,8 +596,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="A7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>NO2</t>
         </is>
@@ -636,10 +621,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>2022</v>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>DE_LU</t>
         </is>
@@ -661,8 +646,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="A9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>NO2</t>
         </is>
@@ -684,10 +671,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>2023</v>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>DE_LU</t>
         </is>
@@ -709,8 +696,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="A11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>NO2</t>
         </is>
@@ -732,13 +721,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>